--- a/service/src/INFRA/imports/cruises.xlsx
+++ b/service/src/INFRA/imports/cruises.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Cuevas\DEV\CRS\back\service\src\infra\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F900C342-15B6-4192-8F3F-F2A52B67D9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AFEEBE-D3CA-4173-B014-86F0B98B2E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
